--- a/SALT/UCl_mixing_test.xlsx
+++ b/SALT/UCl_mixing_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E0FD2-E1A3-CA4F-A4E3-4E0043E94B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F2D10-12B2-1D4E-826E-9CAB12A6127C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="7800" windowWidth="26840" windowHeight="15940" xr2:uid="{8A65A312-E1E7-0F48-8B45-6E442275BE29}"/>
+    <workbookView xWindow="2620" yWindow="6580" windowWidth="26840" windowHeight="15940" xr2:uid="{8A65A312-E1E7-0F48-8B45-6E442275BE29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>NaCl-UCl3 Mix Test</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>BMIX</t>
+  </si>
+  <si>
+    <t>UCl3</t>
+  </si>
+  <si>
+    <t>NaCl-33UCl3</t>
+  </si>
+  <si>
+    <t>#steps</t>
+  </si>
+  <si>
+    <t>nsw=10, nelm=50</t>
+  </si>
+  <si>
+    <t>GAMMA</t>
   </si>
 </sst>
 </file>
@@ -104,13 +119,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,20 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3140BB2-5BBC-FF41-BB4D-A7486397855B}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -460,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -477,17 +496,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -500,9 +541,39 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
         <v>0.4</v>
       </c>
       <c r="C11">
@@ -511,38 +582,121 @@
       <c r="D11">
         <v>812</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="J11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>491</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>507</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>1E-3</v>
       </c>
       <c r="D12">
         <v>699</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L12">
+        <v>432</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13">
         <v>737</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>438</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
         <v>880</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+      <c r="K14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>475</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0.48</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>0.01</v>
       </c>
@@ -552,8 +706,29 @@
       <c r="D15" s="1">
         <v>1005</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>468</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1">
         <v>1E-3</v>
@@ -561,8 +736,24 @@
       <c r="D16" s="1">
         <v>991</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>496</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1">
         <v>0.1</v>
@@ -570,17 +761,18 @@
       <c r="D17" s="1">
         <v>984</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+      <c r="K17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>482</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1">
         <v>2</v>
@@ -588,15 +780,19 @@
       <c r="D18" s="1">
         <v>973</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="J18" s="5"/>
+      <c r="K18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>476</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
         <v>0.1</v>
       </c>
       <c r="C19">
@@ -605,36 +801,84 @@
       <c r="D19">
         <v>890</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
+      <c r="J19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>498</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
       <c r="C20">
         <v>1E-3</v>
       </c>
       <c r="D20">
         <v>875</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>489</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
       <c r="C21">
         <v>0.1</v>
       </c>
       <c r="D21">
         <v>872</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>483</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
         <v>871</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="J22" s="5"/>
+      <c r="K22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>507</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23">
@@ -643,40 +887,111 @@
       <c r="D23">
         <v>751</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>448</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
       <c r="C24">
         <v>1E-3</v>
       </c>
       <c r="D24">
         <v>716</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>429</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
       <c r="C25">
         <v>0.1</v>
       </c>
       <c r="D25">
         <v>708</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>438</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
         <v>779</v>
       </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>429</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
